--- a/data_craw/quarter/balance_sheet_quarter/tpb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/tpb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1567186000000</v>
+        <v>1789875000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1654531000000</v>
+        <v>2214265000000</v>
       </c>
       <c r="D4" t="n">
-        <v>1608090000000</v>
+        <v>1829035000000</v>
       </c>
       <c r="E4" t="n">
-        <v>181339877000000</v>
+        <v>2022546000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1789875000000</v>
+        <v>2558712000000</v>
       </c>
       <c r="G4" t="n">
-        <v>2214265000000</v>
+        <v>292827078000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1829035000000</v>
+        <v>2476525000000</v>
       </c>
       <c r="I4" t="n">
-        <v>2022546000000</v>
+        <v>1834965000000</v>
       </c>
       <c r="J4" t="n">
-        <v>2558712000000</v>
+        <v>2392363000000</v>
       </c>
       <c r="K4" t="n">
-        <v>292827078000000</v>
+        <v>2426932000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2476525000000</v>
+        <v>3421333000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1834965000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2392363000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2426932000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3421333000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>2182092000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6087591000000</v>
+        <v>8870437000000</v>
       </c>
       <c r="C7" t="n">
-        <v>7760937000000</v>
+        <v>9108762000000</v>
       </c>
       <c r="D7" t="n">
-        <v>3249808000000</v>
+        <v>10467415000000</v>
       </c>
       <c r="E7" t="n">
-        <v>7702277000000</v>
+        <v>16421498000000</v>
       </c>
       <c r="F7" t="n">
-        <v>8870437000000</v>
+        <v>11574314000000</v>
       </c>
       <c r="G7" t="n">
-        <v>9108762000000</v>
+        <v>2553309000000</v>
       </c>
       <c r="H7" t="n">
-        <v>10467415000000</v>
+        <v>14077084000000</v>
       </c>
       <c r="I7" t="n">
-        <v>16421498000000</v>
+        <v>14590366000000</v>
       </c>
       <c r="J7" t="n">
-        <v>11574314000000</v>
+        <v>9188049000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2553309000000</v>
+        <v>11988501000000</v>
       </c>
       <c r="L7" t="n">
-        <v>14077084000000</v>
+        <v>8982501000000</v>
       </c>
       <c r="M7" t="n">
-        <v>14590366000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9188049000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11988501000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8982501000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>9213239000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21379254000000</v>
+        <v>19326156000000</v>
       </c>
       <c r="C11" t="n">
-        <v>21023865000000</v>
+        <v>12698296000000</v>
       </c>
       <c r="D11" t="n">
-        <v>23885054000000</v>
+        <v>14595304000000</v>
       </c>
       <c r="E11" t="n">
-        <v>23349975000000</v>
+        <v>24762767000000</v>
       </c>
       <c r="F11" t="n">
-        <v>19326156000000</v>
+        <v>28117144000000</v>
       </c>
       <c r="G11" t="n">
-        <v>12698296000000</v>
+        <v>48752914000000</v>
       </c>
       <c r="H11" t="n">
-        <v>14595304000000</v>
+        <v>37628452000000</v>
       </c>
       <c r="I11" t="n">
-        <v>24762767000000</v>
+        <v>40738575000000</v>
       </c>
       <c r="J11" t="n">
-        <v>28117144000000</v>
+        <v>46897369000000</v>
       </c>
       <c r="K11" t="n">
-        <v>48752914000000</v>
+        <v>53364944000000</v>
       </c>
       <c r="L11" t="n">
-        <v>37628452000000</v>
+        <v>56285508000000</v>
       </c>
       <c r="M11" t="n">
-        <v>40738575000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>46897369000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>53364944000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>56285508000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>56630247000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21279254000000</v>
+        <v>16100752000000</v>
       </c>
       <c r="C12" t="n">
-        <v>19261332000000</v>
+        <v>8685780000000</v>
       </c>
       <c r="D12" t="n">
-        <v>20490801000000</v>
+        <v>8733887000000</v>
       </c>
       <c r="E12" t="n">
-        <v>18961680000000</v>
+        <v>14085647000000</v>
       </c>
       <c r="F12" t="n">
-        <v>16100752000000</v>
+        <v>27187801000000</v>
       </c>
       <c r="G12" t="n">
-        <v>8685780000000</v>
+        <v>35868051000000</v>
       </c>
       <c r="H12" t="n">
-        <v>8733887000000</v>
+        <v>28992946000000</v>
       </c>
       <c r="I12" t="n">
-        <v>14085647000000</v>
+        <v>26523222000000</v>
       </c>
       <c r="J12" t="n">
-        <v>27187801000000</v>
+        <v>31424834000000</v>
       </c>
       <c r="K12" t="n">
-        <v>35868051000000</v>
+        <v>36886065000000</v>
       </c>
       <c r="L12" t="n">
-        <v>28992946000000</v>
+        <v>38777945000000</v>
       </c>
       <c r="M12" t="n">
-        <v>26523222000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>31424834000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>36886065000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>38777945000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>39363356000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,53 +876,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100000000000</v>
+        <v>3225404000000</v>
       </c>
       <c r="C13" t="n">
-        <v>1762533000000</v>
+        <v>4012516000000</v>
       </c>
       <c r="D13" t="n">
-        <v>3394253000000</v>
+        <v>5861417000000</v>
       </c>
       <c r="E13" t="n">
-        <v>4388295000000</v>
+        <v>10677120000000</v>
       </c>
       <c r="F13" t="n">
-        <v>3225404000000</v>
+        <v>10929343000000</v>
       </c>
       <c r="G13" t="n">
-        <v>4012516000000</v>
+        <v>12884863000000</v>
       </c>
       <c r="H13" t="n">
-        <v>5861417000000</v>
+        <v>8635506000000</v>
       </c>
       <c r="I13" t="n">
-        <v>10677120000000</v>
+        <v>14215353000000</v>
       </c>
       <c r="J13" t="n">
-        <v>10929343000000</v>
+        <v>15472535000000</v>
       </c>
       <c r="K13" t="n">
-        <v>12884863000000</v>
+        <v>16478879000000</v>
       </c>
       <c r="L13" t="n">
-        <v>8635506000000</v>
+        <v>17507563000000</v>
       </c>
       <c r="M13" t="n">
-        <v>14215353000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15472535000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>16478879000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17507563000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>17266891000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1170,47 +1130,39 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86725000000</v>
+        <v>72291000000</v>
       </c>
       <c r="C23" t="n">
-        <v>12987000000</v>
+        <v>77344000000</v>
       </c>
       <c r="D23" t="n">
-        <v>85730000000</v>
+        <v>153807000000</v>
       </c>
       <c r="E23" t="n">
-        <v>59364000000</v>
+        <v>195550000000</v>
       </c>
       <c r="F23" t="n">
-        <v>72291000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>77344000000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>153807000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>195550000000</v>
-      </c>
+        <v>189844000000</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>189844000000</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
         <v>95137000000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="K23" t="n">
         <v>203247000000</v>
       </c>
-      <c r="P23" t="n">
+      <c r="L23" t="n">
         <v>282297000000</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="M23" t="n">
         <v>294883000000</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1358,9 +1310,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>39600000000</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1543,53 +1493,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>411839000000</v>
+        <v>566225000000</v>
       </c>
       <c r="C38" t="n">
-        <v>570994000000</v>
+        <v>708842000000</v>
       </c>
       <c r="D38" t="n">
-        <v>626871000000</v>
+        <v>779732000000</v>
       </c>
       <c r="E38" t="n">
-        <v>602256000000</v>
+        <v>761898000000</v>
       </c>
       <c r="F38" t="n">
-        <v>566225000000</v>
+        <v>778305000000</v>
       </c>
       <c r="G38" t="n">
-        <v>708842000000</v>
+        <v>788613000000</v>
       </c>
       <c r="H38" t="n">
-        <v>779732000000</v>
+        <v>741418000000</v>
       </c>
       <c r="I38" t="n">
-        <v>761898000000</v>
+        <v>810544000000</v>
       </c>
       <c r="J38" t="n">
-        <v>778305000000</v>
+        <v>1086505000000</v>
       </c>
       <c r="K38" t="n">
-        <v>788613000000</v>
+        <v>1205386000000</v>
       </c>
       <c r="L38" t="n">
-        <v>741418000000</v>
+        <v>1134970000000</v>
       </c>
       <c r="M38" t="n">
-        <v>810544000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1086505000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1205386000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1134970000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>1067824000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1598,53 +1540,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>272291000000</v>
+        <v>360898000000</v>
       </c>
       <c r="C39" t="n">
-        <v>368965000000</v>
+        <v>475619000000</v>
       </c>
       <c r="D39" t="n">
-        <v>404752000000</v>
+        <v>538341000000</v>
       </c>
       <c r="E39" t="n">
-        <v>387327000000</v>
+        <v>519066000000</v>
       </c>
       <c r="F39" t="n">
-        <v>360898000000</v>
+        <v>517028000000</v>
       </c>
       <c r="G39" t="n">
-        <v>475619000000</v>
+        <v>512870000000</v>
       </c>
       <c r="H39" t="n">
-        <v>538341000000</v>
+        <v>478960000000</v>
       </c>
       <c r="I39" t="n">
-        <v>519066000000</v>
+        <v>509973000000</v>
       </c>
       <c r="J39" t="n">
-        <v>517028000000</v>
+        <v>801682000000</v>
       </c>
       <c r="K39" t="n">
-        <v>512870000000</v>
+        <v>903413000000</v>
       </c>
       <c r="L39" t="n">
-        <v>478960000000</v>
+        <v>856026000000</v>
       </c>
       <c r="M39" t="n">
-        <v>509973000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>801682000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>903413000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>856026000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>804587000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1653,53 +1587,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576943000000</v>
+        <v>780648000000</v>
       </c>
       <c r="C40" t="n">
-        <v>698012000000</v>
+        <v>934334000000</v>
       </c>
       <c r="D40" t="n">
-        <v>763234000000</v>
+        <v>1036483000000</v>
       </c>
       <c r="E40" t="n">
-        <v>774312000000</v>
+        <v>1056933000000</v>
       </c>
       <c r="F40" t="n">
-        <v>780648000000</v>
+        <v>1097402000000</v>
       </c>
       <c r="G40" t="n">
-        <v>934334000000</v>
+        <v>1133034000000</v>
       </c>
       <c r="H40" t="n">
-        <v>1036483000000</v>
+        <v>1138997000000</v>
       </c>
       <c r="I40" t="n">
-        <v>1056933000000</v>
+        <v>1216772000000</v>
       </c>
       <c r="J40" t="n">
-        <v>1097402000000</v>
+        <v>1570939000000</v>
       </c>
       <c r="K40" t="n">
-        <v>1133034000000</v>
+        <v>1725795000000</v>
       </c>
       <c r="L40" t="n">
-        <v>1138997000000</v>
+        <v>1738191000000</v>
       </c>
       <c r="M40" t="n">
-        <v>1216772000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1570939000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1725795000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1738191000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>1747253000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1708,53 +1634,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-304652000000</v>
+        <v>-419750000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-329047000000</v>
+        <v>-458715000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-358482000000</v>
+        <v>-498142000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-386985000000</v>
+        <v>-537867000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-419750000000</v>
+        <v>-580374000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-458715000000</v>
+        <v>-620164000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-498142000000</v>
+        <v>-660037000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-537867000000</v>
+        <v>-706799000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-580374000000</v>
+        <v>-769257000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-620164000000</v>
+        <v>-822382000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-660037000000</v>
+        <v>-882165000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-706799000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-769257000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-822382000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-882165000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-942666000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1832,53 +1750,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>139548000000</v>
+        <v>205327000000</v>
       </c>
       <c r="C45" t="n">
-        <v>202029000000</v>
+        <v>233223000000</v>
       </c>
       <c r="D45" t="n">
-        <v>222119000000</v>
+        <v>241391000000</v>
       </c>
       <c r="E45" t="n">
-        <v>214929000000</v>
+        <v>242832000000</v>
       </c>
       <c r="F45" t="n">
-        <v>205327000000</v>
+        <v>261277000000</v>
       </c>
       <c r="G45" t="n">
-        <v>233223000000</v>
+        <v>275743000000</v>
       </c>
       <c r="H45" t="n">
-        <v>241391000000</v>
+        <v>262458000000</v>
       </c>
       <c r="I45" t="n">
-        <v>242832000000</v>
+        <v>300571000000</v>
       </c>
       <c r="J45" t="n">
-        <v>261277000000</v>
+        <v>284823000000</v>
       </c>
       <c r="K45" t="n">
-        <v>275743000000</v>
+        <v>301973000000</v>
       </c>
       <c r="L45" t="n">
-        <v>262458000000</v>
+        <v>278944000000</v>
       </c>
       <c r="M45" t="n">
-        <v>300571000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>284823000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>301973000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>278944000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>263237000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1887,53 +1797,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>291365000000</v>
+        <v>435441000000</v>
       </c>
       <c r="C46" t="n">
-        <v>370895000000</v>
+        <v>483915000000</v>
       </c>
       <c r="D46" t="n">
-        <v>412226000000</v>
+        <v>513265000000</v>
       </c>
       <c r="E46" t="n">
-        <v>419322000000</v>
+        <v>536952000000</v>
       </c>
       <c r="F46" t="n">
-        <v>435441000000</v>
+        <v>580176000000</v>
       </c>
       <c r="G46" t="n">
-        <v>483915000000</v>
+        <v>620296000000</v>
       </c>
       <c r="H46" t="n">
-        <v>513265000000</v>
+        <v>631859000000</v>
       </c>
       <c r="I46" t="n">
-        <v>536952000000</v>
+        <v>696269000000</v>
       </c>
       <c r="J46" t="n">
-        <v>580176000000</v>
+        <v>708465000000</v>
       </c>
       <c r="K46" t="n">
-        <v>620296000000</v>
+        <v>750811000000</v>
       </c>
       <c r="L46" t="n">
-        <v>631859000000</v>
+        <v>754213000000</v>
       </c>
       <c r="M46" t="n">
-        <v>696269000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>708465000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>750811000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>754213000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>765438000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1942,53 +1844,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-151817000000</v>
+        <v>-230114000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-168866000000</v>
+        <v>-250692000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-190107000000</v>
+        <v>-271874000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-204393000000</v>
+        <v>-294120000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-230114000000</v>
+        <v>-318899000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-250692000000</v>
+        <v>-344553000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-271874000000</v>
+        <v>-369401000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-294120000000</v>
+        <v>-395698000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-318899000000</v>
+        <v>-423642000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-344553000000</v>
+        <v>-448838000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-369401000000</v>
+        <v>-475269000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-395698000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-423642000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-448838000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-475269000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-502201000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2135,53 +2029,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11784336000000</v>
+        <v>10903327000000</v>
       </c>
       <c r="C54" t="n">
-        <v>12018572000000</v>
+        <v>14284297000000</v>
       </c>
       <c r="D54" t="n">
-        <v>9249848000000</v>
+        <v>15592956000000</v>
       </c>
       <c r="E54" t="n">
-        <v>9926236000000</v>
+        <v>17684384000000</v>
       </c>
       <c r="F54" t="n">
-        <v>10903327000000</v>
+        <v>20884417000000</v>
       </c>
       <c r="G54" t="n">
-        <v>14284297000000</v>
+        <v>19864752000000</v>
       </c>
       <c r="H54" t="n">
-        <v>15592956000000</v>
+        <v>22220267000000</v>
       </c>
       <c r="I54" t="n">
-        <v>17684384000000</v>
+        <v>26908952000000</v>
       </c>
       <c r="J54" t="n">
-        <v>20884417000000</v>
+        <v>27077360000000</v>
       </c>
       <c r="K54" t="n">
-        <v>19864752000000</v>
+        <v>25737368000000</v>
       </c>
       <c r="L54" t="n">
-        <v>22220267000000</v>
+        <v>23962072000000</v>
       </c>
       <c r="M54" t="n">
-        <v>26908952000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>27077360000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>25737368000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>23962072000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>25370259000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2190,53 +2076,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7500341000000</v>
+        <v>7584408000000</v>
       </c>
       <c r="C55" t="n">
-        <v>9222733000000</v>
+        <v>11088232000000</v>
       </c>
       <c r="D55" t="n">
-        <v>6091296000000</v>
+        <v>12427850000000</v>
       </c>
       <c r="E55" t="n">
-        <v>684496000000</v>
+        <v>14328243000000</v>
       </c>
       <c r="F55" t="n">
-        <v>7584408000000</v>
+        <v>17218632000000</v>
       </c>
       <c r="G55" t="n">
-        <v>11088232000000</v>
+        <v>16282628000000</v>
       </c>
       <c r="H55" t="n">
-        <v>12427850000000</v>
+        <v>18293250000000</v>
       </c>
       <c r="I55" t="n">
-        <v>14328243000000</v>
+        <v>22707328000000</v>
       </c>
       <c r="J55" t="n">
-        <v>17218632000000</v>
+        <v>22338502000000</v>
       </c>
       <c r="K55" t="n">
-        <v>16282628000000</v>
+        <v>17545725000000</v>
       </c>
       <c r="L55" t="n">
-        <v>18293250000000</v>
+        <v>15153768000000</v>
       </c>
       <c r="M55" t="n">
-        <v>22707328000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>22338502000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>17545725000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>15153768000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>17078069000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2245,51 +2123,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1386249000000</v>
+        <v>1821064000000</v>
       </c>
       <c r="C56" t="n">
-        <v>1311427000000</v>
+        <v>1677236000000</v>
       </c>
       <c r="D56" t="n">
-        <v>1670095000000</v>
+        <v>1642618000000</v>
       </c>
       <c r="E56" t="n">
-        <v>1564654000000</v>
+        <v>1733065000000</v>
       </c>
       <c r="F56" t="n">
-        <v>1821064000000</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1677236000000</v>
-      </c>
+        <v>2098647000000</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1642618000000</v>
+        <v>2276112000000</v>
       </c>
       <c r="I56" t="n">
-        <v>1733065000000</v>
+        <v>2483921000000</v>
       </c>
       <c r="J56" t="n">
-        <v>2098647000000</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>2973750000000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3140637000000</v>
+      </c>
       <c r="L56" t="n">
-        <v>2276112000000</v>
+        <v>3392617000000</v>
       </c>
       <c r="M56" t="n">
-        <v>2483921000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2973750000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>3140637000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3392617000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>3274916000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2321,53 +2191,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2897746000000</v>
+        <v>1523399000000</v>
       </c>
       <c r="C58" t="n">
-        <v>1499720000000</v>
+        <v>1572530000000</v>
       </c>
       <c r="D58" t="n">
-        <v>1503765000000</v>
+        <v>1576189000000</v>
       </c>
       <c r="E58" t="n">
-        <v>1502630000000</v>
+        <v>1625689000000</v>
       </c>
       <c r="F58" t="n">
-        <v>1523399000000</v>
+        <v>1569751000000</v>
       </c>
       <c r="G58" t="n">
-        <v>1572530000000</v>
+        <v>1650611000000</v>
       </c>
       <c r="H58" t="n">
-        <v>1576189000000</v>
+        <v>1654521000000</v>
       </c>
       <c r="I58" t="n">
-        <v>1625689000000</v>
+        <v>1721319000000</v>
       </c>
       <c r="J58" t="n">
-        <v>1569751000000</v>
+        <v>1768724000000</v>
       </c>
       <c r="K58" t="n">
-        <v>1650611000000</v>
+        <v>5046097000000</v>
       </c>
       <c r="L58" t="n">
-        <v>1654521000000</v>
+        <v>5420778000000</v>
       </c>
       <c r="M58" t="n">
-        <v>1721319000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1768724000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>5046097000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5420778000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>5022365000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2583,53 +2445,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>153929979000000</v>
+        <v>193461319000000</v>
       </c>
       <c r="C68" t="n">
-        <v>164593666000000</v>
+        <v>206314594000000</v>
       </c>
       <c r="D68" t="n">
-        <v>176632067000000</v>
+        <v>216152686000000</v>
       </c>
       <c r="E68" t="n">
-        <v>181339877000000</v>
+        <v>242254793000000</v>
       </c>
       <c r="F68" t="n">
-        <v>193461319000000</v>
+        <v>260327561000000</v>
       </c>
       <c r="G68" t="n">
-        <v>206314594000000</v>
+        <v>292827078000000</v>
       </c>
       <c r="H68" t="n">
-        <v>216152686000000</v>
+        <v>302622532000000</v>
       </c>
       <c r="I68" t="n">
-        <v>242254793000000</v>
+        <v>310772469000000</v>
       </c>
       <c r="J68" t="n">
-        <v>260327561000000</v>
+        <v>317327732000000</v>
       </c>
       <c r="K68" t="n">
-        <v>292827078000000</v>
+        <v>328634007000000</v>
       </c>
       <c r="L68" t="n">
-        <v>302622532000000</v>
+        <v>343522216000000</v>
       </c>
       <c r="M68" t="n">
-        <v>310772469000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>317327732000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>328634007000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>343522216000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>343406813000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2638,53 +2492,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>857282000000</v>
+        <v>731691000000</v>
       </c>
       <c r="C69" t="n">
-        <v>828005000000</v>
+        <v>697937000000</v>
       </c>
       <c r="D69" t="n">
-        <v>1475129000000</v>
+        <v>668285000000</v>
       </c>
       <c r="E69" t="n">
-        <v>771563000000</v>
+        <v>626953000000</v>
       </c>
       <c r="F69" t="n">
-        <v>731691000000</v>
+        <v>598091000000</v>
       </c>
       <c r="G69" t="n">
-        <v>697937000000</v>
+        <v>564074000000</v>
       </c>
       <c r="H69" t="n">
-        <v>668285000000</v>
+        <v>532269000000</v>
       </c>
       <c r="I69" t="n">
-        <v>626953000000</v>
+        <v>493305000000</v>
       </c>
       <c r="J69" t="n">
-        <v>598091000000</v>
+        <v>460808000000</v>
       </c>
       <c r="K69" t="n">
-        <v>564074000000</v>
+        <v>433439000000</v>
       </c>
       <c r="L69" t="n">
-        <v>532269000000</v>
+        <v>413067000000</v>
       </c>
       <c r="M69" t="n">
-        <v>493305000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>460808000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>433439000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>413067000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>2976577000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2900,53 +2746,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>39159546000000</v>
+        <v>43782865000000</v>
       </c>
       <c r="C79" t="n">
-        <v>40213903000000</v>
+        <v>40879958000000</v>
       </c>
       <c r="D79" t="n">
-        <v>50977111000000</v>
+        <v>48712126000000</v>
       </c>
       <c r="E79" t="n">
-        <v>45992431000000</v>
+        <v>56157590000000</v>
       </c>
       <c r="F79" t="n">
-        <v>43782865000000</v>
+        <v>66974452000000</v>
       </c>
       <c r="G79" t="n">
-        <v>40879958000000</v>
+        <v>87015960000000</v>
       </c>
       <c r="H79" t="n">
-        <v>48712126000000</v>
+        <v>80247844000000</v>
       </c>
       <c r="I79" t="n">
-        <v>56157590000000</v>
+        <v>88034259000000</v>
       </c>
       <c r="J79" t="n">
-        <v>66974452000000</v>
+        <v>87201286000000</v>
       </c>
       <c r="K79" t="n">
-        <v>87015960000000</v>
+        <v>73496158000000</v>
       </c>
       <c r="L79" t="n">
-        <v>80247844000000</v>
+        <v>82742383000000</v>
       </c>
       <c r="M79" t="n">
-        <v>88034259000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>87201286000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>73496158000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>82742383000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>88139893000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2955,53 +2793,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>28694325000000</v>
+        <v>31257656000000</v>
       </c>
       <c r="C80" t="n">
-        <v>28948393000000</v>
+        <v>19401344000000</v>
       </c>
       <c r="D80" t="n">
-        <v>34379754000000</v>
+        <v>28483199000000</v>
       </c>
       <c r="E80" t="n">
-        <v>31270611000000</v>
+        <v>30812212000000</v>
       </c>
       <c r="F80" t="n">
-        <v>31257656000000</v>
+        <v>44154489000000</v>
       </c>
       <c r="G80" t="n">
-        <v>19401344000000</v>
+        <v>53315464000000</v>
       </c>
       <c r="H80" t="n">
-        <v>28483199000000</v>
+        <v>45449755000000</v>
       </c>
       <c r="I80" t="n">
-        <v>30812212000000</v>
+        <v>44097489000000</v>
       </c>
       <c r="J80" t="n">
-        <v>44154489000000</v>
+        <v>50077494000000</v>
       </c>
       <c r="K80" t="n">
-        <v>53315464000000</v>
+        <v>47265806000000</v>
       </c>
       <c r="L80" t="n">
-        <v>45449755000000</v>
+        <v>59511279000000</v>
       </c>
       <c r="M80" t="n">
-        <v>44097489000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>50077494000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>47265806000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>59511279000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>59164724000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3010,53 +2840,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10465221000000</v>
+        <v>12525209000000</v>
       </c>
       <c r="C81" t="n">
-        <v>11265510000000</v>
+        <v>21478614000000</v>
       </c>
       <c r="D81" t="n">
-        <v>16597357000000</v>
+        <v>20228927000000</v>
       </c>
       <c r="E81" t="n">
-        <v>14721820000000</v>
+        <v>25345378000000</v>
       </c>
       <c r="F81" t="n">
-        <v>12525209000000</v>
+        <v>22819963000000</v>
       </c>
       <c r="G81" t="n">
-        <v>21478614000000</v>
+        <v>33700496000000</v>
       </c>
       <c r="H81" t="n">
-        <v>20228927000000</v>
+        <v>34798089000000</v>
       </c>
       <c r="I81" t="n">
-        <v>25345378000000</v>
+        <v>43936770000000</v>
       </c>
       <c r="J81" t="n">
-        <v>22819963000000</v>
+        <v>37123792000000</v>
       </c>
       <c r="K81" t="n">
-        <v>33700496000000</v>
+        <v>26230352000000</v>
       </c>
       <c r="L81" t="n">
-        <v>34798089000000</v>
+        <v>23231104000000</v>
       </c>
       <c r="M81" t="n">
-        <v>43936770000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>37123792000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>26230352000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>23231104000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>28975169000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3111,51 +2933,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>85596232000000</v>
+        <v>108694001000000</v>
       </c>
       <c r="C84" t="n">
-        <v>92439495000000</v>
+        <v>115903526000000</v>
       </c>
       <c r="D84" t="n">
-        <v>89686651000000</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
+        <v>120036649000000</v>
+      </c>
+      <c r="E84" t="n">
+        <v>132070302000000</v>
+      </c>
       <c r="F84" t="n">
-        <v>108694001000000</v>
+        <v>131508437000000</v>
       </c>
       <c r="G84" t="n">
-        <v>115903526000000</v>
+        <v>139562262000000</v>
       </c>
       <c r="H84" t="n">
-        <v>120036649000000</v>
+        <v>152538738000000</v>
       </c>
       <c r="I84" t="n">
-        <v>132070302000000</v>
+        <v>156336660000000</v>
       </c>
       <c r="J84" t="n">
-        <v>131508437000000</v>
+        <v>162694692000000</v>
       </c>
       <c r="K84" t="n">
-        <v>139562262000000</v>
+        <v>194959921000000</v>
       </c>
       <c r="L84" t="n">
-        <v>152538738000000</v>
+        <v>200998074000000</v>
       </c>
       <c r="M84" t="n">
-        <v>156336660000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>162694692000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>194959921000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>200998074000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>199126911000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3375,19 +3191,19 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>77705000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>51673000000</v>
+      </c>
+      <c r="I94" t="n">
+        <v>7283000000</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>77705000000</v>
-      </c>
-      <c r="L94" t="n">
-        <v>51673000000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>7283000000</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -3468,22 +3284,20 @@
           <t>D.VỐN CHỦ SỞ HỮU</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>142020768000000</v>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>235568431000000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>266839097000000</v>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>235568431000000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>266839097000000</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
@@ -3524,28 +3338,28 @@
         <v>8565892000000</v>
       </c>
       <c r="C100" t="n">
-        <v>8565892000000</v>
+        <v>10716717000000</v>
       </c>
       <c r="D100" t="n">
-        <v>8565892000000</v>
+        <v>10716717000000</v>
       </c>
       <c r="E100" t="n">
-        <v>8565892000000</v>
+        <v>10716717000000</v>
       </c>
       <c r="F100" t="n">
-        <v>8565892000000</v>
+        <v>11716717000000</v>
       </c>
       <c r="G100" t="n">
-        <v>10716717000000</v>
+        <v>15817555000000</v>
       </c>
       <c r="H100" t="n">
-        <v>10716717000000</v>
+        <v>15817555000000</v>
       </c>
       <c r="I100" t="n">
-        <v>10716717000000</v>
+        <v>15817555000000</v>
       </c>
       <c r="J100" t="n">
-        <v>11716717000000</v>
+        <v>15817555000000</v>
       </c>
       <c r="K100" t="n">
         <v>15817555000000</v>
@@ -3554,20 +3368,12 @@
         <v>15817555000000</v>
       </c>
       <c r="M100" t="n">
-        <v>15817555000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>15817555000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>15817555000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>15817555000000</v>
-      </c>
-      <c r="Q100" t="n">
         <v>22016350000000</v>
       </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3648,25 +3454,25 @@
         <v>76000000</v>
       </c>
       <c r="C104" t="n">
-        <v>76000000</v>
+        <v>51072000000</v>
       </c>
       <c r="D104" t="n">
-        <v>76000000</v>
+        <v>51071000000</v>
       </c>
       <c r="E104" t="n">
-        <v>76000000</v>
+        <v>277465000000</v>
       </c>
       <c r="F104" t="n">
-        <v>76000000</v>
+        <v>2560965000000</v>
       </c>
       <c r="G104" t="n">
-        <v>51072000000</v>
+        <v>2560965000000</v>
       </c>
       <c r="H104" t="n">
-        <v>51071000000</v>
+        <v>2560965000000</v>
       </c>
       <c r="I104" t="n">
-        <v>277465000000</v>
+        <v>2560965000000</v>
       </c>
       <c r="J104" t="n">
         <v>2560965000000</v>
@@ -3677,18 +3483,10 @@
       <c r="L104" t="n">
         <v>2560965000000</v>
       </c>
-      <c r="M104" t="n">
-        <v>2560965000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>2560965000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>2560965000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>2560965000000</v>
-      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3698,26 +3496,18 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-683239000000</v>
+        <v>-908599000000</v>
       </c>
       <c r="C105" t="n">
-        <v>-683239000000</v>
+        <v>-908599000000</v>
       </c>
       <c r="D105" t="n">
         <v>-908599000000</v>
       </c>
-      <c r="E105" t="n">
-        <v>-908599000000</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-908599000000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-908599000000</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-908599000000</v>
-      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -3850,53 +3640,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>576259000000</v>
+        <v>1040335000000</v>
       </c>
       <c r="C111" t="n">
-        <v>576259000000</v>
+        <v>862350000000</v>
       </c>
       <c r="D111" t="n">
-        <v>576259000000</v>
+        <v>862350000000</v>
       </c>
       <c r="E111" t="n">
-        <v>1040335000000</v>
+        <v>1388879000000</v>
       </c>
       <c r="F111" t="n">
-        <v>1040335000000</v>
+        <v>1388879000000</v>
       </c>
       <c r="G111" t="n">
-        <v>862350000000</v>
+        <v>1388879000000</v>
       </c>
       <c r="H111" t="n">
-        <v>862350000000</v>
+        <v>1388879000000</v>
       </c>
       <c r="I111" t="n">
-        <v>1388879000000</v>
+        <v>2113255000000</v>
       </c>
       <c r="J111" t="n">
-        <v>1388879000000</v>
+        <v>2113255000000</v>
       </c>
       <c r="K111" t="n">
-        <v>1388879000000</v>
+        <v>2113255000000</v>
       </c>
       <c r="L111" t="n">
-        <v>1388879000000</v>
+        <v>2113255000000</v>
       </c>
       <c r="M111" t="n">
-        <v>2113255000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2113255000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2113255000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>2113255000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>3052367000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4019,35 +3801,33 @@
           <t>II. Nguồn kinh phí và quỹ khác</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>175040000000</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>205034000000</v>
+        <v>67399000000</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>175040000000</v>
+        <v>86282000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>67399000000</v>
+        <v>97838000000</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>86282000000</v>
+        <v>-82426000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>97838000000</v>
+        <v>10070000000</v>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
-        <v>-82426000000</v>
-      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>10070000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
